--- a/biology/Zoologie/Goiat/Goiat.xlsx
+++ b/biology/Zoologie/Goiat/Goiat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goiat (parfois orthographié Goïat), né en Slovénie, est un ours brun mâle introduit en 2016 dans les Pyrénées. En catalan de Pallars, où il a été relâché, goiat signifie « jeune ».
 Extrêmement mobile, il parcourt un immense territoire dans les Pyrénées, tant en France qu'en Espagne. Depuis son arrivée dans le massif pyrénéen, il a effectué de nombreuses attaques contre des biens ou du bétail, en particulier des chevaux, y compris des adultes. Il est décrété ours à problèmes en 2018 en Espagne, année où il est capturé afin de renouveler son collier GPS puis en France en 2019 et 2021. Les autorités cherchent en vain à le capturer à nouveau depuis juin 2021.
